--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19090\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Image Stitching\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991D0D4-0080-462E-9003-BAACFA71D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD053E-B9D2-416D-B982-98F6A8CC91BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="3885" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29475" yWindow="0" windowWidth="10245" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,12 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -931,21 +940,531 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
-        <f>SUM(B2:B31)</f>
-        <v>15</v>
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
       </c>
       <c r="C32" s="2">
-        <f>SUM(C2:C31)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
-        <f>SUM(D2:D31)</f>
-        <v>21</v>
-      </c>
-      <c r="E32" s="2">
-        <f>SUM(E2:E31)</f>
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f>SUM(B2:B61)</f>
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <f>SUM(C2:C61)</f>
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <f>SUM(D2:D61)</f>
+        <v>38</v>
+      </c>
+      <c r="E62">
+        <f>SUM(E2:E61)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
